--- a/docs/pins.xlsx
+++ b/docs/pins.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -168,9 +168,6 @@
     <t>Power Control</t>
   </si>
   <si>
-    <t>Aux MIDI In</t>
-  </si>
-  <si>
     <t>Spare</t>
   </si>
   <si>
@@ -319,6 +316,9 @@
   </si>
   <si>
     <t>OUT</t>
+  </si>
+  <si>
+    <t>Key Read #1</t>
   </si>
 </sst>
 </file>
@@ -638,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,13 +662,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
         <v>76</v>
       </c>
-      <c r="E3" t="s">
-        <v>77</v>
-      </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
@@ -679,13 +679,13 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -696,7 +696,7 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
@@ -707,7 +707,7 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -750,7 +750,7 @@
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
@@ -761,7 +761,7 @@
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
@@ -780,13 +780,13 @@
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
@@ -797,7 +797,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
@@ -808,13 +808,13 @@
         <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
@@ -825,13 +825,13 @@
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
@@ -842,13 +842,13 @@
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
@@ -859,13 +859,13 @@
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -876,13 +876,13 @@
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -893,13 +893,13 @@
         <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -910,13 +910,13 @@
         <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
@@ -927,13 +927,13 @@
         <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -944,13 +944,13 @@
         <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
@@ -961,7 +961,7 @@
         <v>25</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
@@ -972,7 +972,7 @@
         <v>26</v>
       </c>
       <c r="F26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
@@ -983,7 +983,7 @@
         <v>27</v>
       </c>
       <c r="F27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
@@ -994,13 +994,13 @@
         <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
@@ -1027,13 +1027,13 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
@@ -1044,13 +1044,13 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
@@ -1061,13 +1061,13 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -1078,7 +1078,7 @@
         <v>29</v>
       </c>
       <c r="F34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
@@ -1089,7 +1089,7 @@
         <v>30</v>
       </c>
       <c r="F35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
@@ -1100,13 +1100,13 @@
         <v>31</v>
       </c>
       <c r="D36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -1117,13 +1117,13 @@
         <v>32</v>
       </c>
       <c r="D37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -1134,7 +1134,7 @@
         <v>33</v>
       </c>
       <c r="F38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -1145,7 +1145,7 @@
         <v>34</v>
       </c>
       <c r="F39" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -1156,10 +1156,10 @@
         <v>35</v>
       </c>
       <c r="D40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F40" t="s">
         <v>48</v>
@@ -1173,10 +1173,10 @@
         <v>36</v>
       </c>
       <c r="D41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F41" t="s">
         <v>47</v>
@@ -1190,10 +1190,10 @@
         <v>37</v>
       </c>
       <c r="D42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F42" t="s">
         <v>46</v>
@@ -1207,10 +1207,10 @@
         <v>38</v>
       </c>
       <c r="D43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F43" t="s">
         <v>45</v>

--- a/docs/pins.xlsx
+++ b/docs/pins.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="103">
   <si>
     <t>Pin#</t>
   </si>
@@ -319,6 +319,15 @@
   </si>
   <si>
     <t>Key Read #1</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D2</t>
   </si>
 </sst>
 </file>
@@ -636,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F46"/>
+  <dimension ref="B2:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,7 +826,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>15</v>
       </c>
@@ -834,7 +843,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>16</v>
       </c>
@@ -851,7 +860,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>17</v>
       </c>
@@ -868,7 +877,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>18</v>
       </c>
@@ -885,7 +894,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>19</v>
       </c>
@@ -902,7 +911,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>20</v>
       </c>
@@ -919,7 +928,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>21</v>
       </c>
@@ -936,7 +945,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>22</v>
       </c>
@@ -953,7 +962,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>23</v>
       </c>
@@ -964,7 +973,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>24</v>
       </c>
@@ -975,7 +984,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>25</v>
       </c>
@@ -986,7 +995,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>26</v>
       </c>
@@ -1002,8 +1011,11 @@
       <c r="F28" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>27</v>
       </c>
@@ -1011,7 +1023,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>28</v>
       </c>
@@ -1019,7 +1031,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>29</v>
       </c>
@@ -1035,8 +1047,11 @@
       <c r="F31" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>30</v>
       </c>
@@ -1052,8 +1067,11 @@
       <c r="F32" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>31</v>
       </c>
@@ -1069,8 +1087,11 @@
       <c r="F33" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>32</v>
       </c>
@@ -1081,7 +1102,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>33</v>
       </c>
@@ -1092,7 +1113,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>34</v>
       </c>
@@ -1109,7 +1130,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>35</v>
       </c>
@@ -1126,7 +1147,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>36</v>
       </c>
@@ -1137,7 +1158,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>37</v>
       </c>
@@ -1148,7 +1169,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>38</v>
       </c>
@@ -1165,7 +1186,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>39</v>
       </c>
@@ -1182,7 +1203,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>40</v>
       </c>
@@ -1199,7 +1220,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>41</v>
       </c>
@@ -1216,7 +1237,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>42</v>
       </c>
@@ -1227,7 +1248,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>43</v>
       </c>
@@ -1238,7 +1259,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>44</v>
       </c>

--- a/docs/pins.xlsx
+++ b/docs/pins.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="103">
   <si>
     <t>Pin#</t>
   </si>
@@ -156,9 +156,6 @@
     <t>SWD_CLK</t>
   </si>
   <si>
-    <t>Beat Sync Out</t>
-  </si>
-  <si>
     <t>Beat Sync In</t>
   </si>
   <si>
@@ -171,9 +168,6 @@
     <t>Spare</t>
   </si>
   <si>
-    <t>Front Panel Lights</t>
-  </si>
-  <si>
     <t>Front Panel Display Enable</t>
   </si>
   <si>
@@ -328,14 +322,28 @@
   </si>
   <si>
     <t>D2</t>
+  </si>
+  <si>
+    <t>Beat Sync IN (was panel light)</t>
+  </si>
+  <si>
+    <t>Beat Sync OUT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -363,8 +371,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -647,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,13 +680,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
@@ -688,13 +697,13 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" t="s">
         <v>75</v>
       </c>
-      <c r="E4" t="s">
-        <v>77</v>
-      </c>
       <c r="F4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -705,7 +714,7 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
@@ -716,7 +725,7 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -759,7 +768,7 @@
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
@@ -770,7 +779,7 @@
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
@@ -789,13 +798,13 @@
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
@@ -806,7 +815,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
@@ -817,13 +826,13 @@
         <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -834,13 +843,13 @@
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -851,13 +860,13 @@
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -868,13 +877,13 @@
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -885,13 +894,13 @@
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -902,13 +911,13 @@
         <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -919,13 +928,13 @@
         <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -936,13 +945,13 @@
         <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -953,13 +962,13 @@
         <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -970,7 +979,7 @@
         <v>25</v>
       </c>
       <c r="F25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -981,7 +990,7 @@
         <v>26</v>
       </c>
       <c r="F26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -992,7 +1001,7 @@
         <v>27</v>
       </c>
       <c r="F27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -1003,16 +1012,16 @@
         <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -1039,16 +1048,16 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31" t="s">
+        <v>54</v>
+      </c>
+      <c r="H31" t="s">
         <v>98</v>
-      </c>
-      <c r="E31" t="s">
-        <v>89</v>
-      </c>
-      <c r="F31" t="s">
-        <v>56</v>
-      </c>
-      <c r="H31" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -1059,16 +1068,16 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E32" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H32" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -1079,16 +1088,16 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H33" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -1099,7 +1108,7 @@
         <v>29</v>
       </c>
       <c r="F34" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
@@ -1110,7 +1119,7 @@
         <v>30</v>
       </c>
       <c r="F35" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
@@ -1121,13 +1130,13 @@
         <v>31</v>
       </c>
       <c r="D36" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E36" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F36" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
@@ -1138,13 +1147,13 @@
         <v>32</v>
       </c>
       <c r="D37" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="E37" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F37" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
@@ -1155,7 +1164,7 @@
         <v>33</v>
       </c>
       <c r="F38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
@@ -1166,7 +1175,7 @@
         <v>34</v>
       </c>
       <c r="F39" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
@@ -1177,13 +1186,13 @@
         <v>35</v>
       </c>
       <c r="D40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E40" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
@@ -1194,13 +1203,13 @@
         <v>36</v>
       </c>
       <c r="D41" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E41" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
@@ -1210,14 +1219,11 @@
       <c r="C42" t="s">
         <v>37</v>
       </c>
-      <c r="D42" t="s">
-        <v>75</v>
-      </c>
       <c r="E42" t="s">
-        <v>96</v>
-      </c>
-      <c r="F42" t="s">
-        <v>46</v>
+        <v>94</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
@@ -1228,13 +1234,13 @@
         <v>38</v>
       </c>
       <c r="D43" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E43" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F43" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
@@ -1272,5 +1278,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>